--- a/medicine/Enfance/Formule_X-33/Formule_X-33.xlsx
+++ b/medicine/Enfance/Formule_X-33/Formule_X-33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Formule X-33 est le 51e roman de la série Bob Morane écrit par Henri Vernes et publié en 1962 par les éditions Gérard et Cie dans la collection Marabout junior (no 214).
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bob Morane.
 Bill Ballantine: meilleur ami de Bob Morane et son compagnon d'aventures depuis toujours.
@@ -557,7 +571,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bob Morane et Bill Ballantine luttent contre deux gangs rivaux qui veulent s'approprier le secret de la formule X-33, découverte par le professeur Joliette qui permet de créer une bombe ayant la puissance de la bombe atomique mais sans ses retombées radioactives. L'un des gangs est chinois ; l'autre, travaillant pour le compte d'un pays de l'Est, est dirigé par un personnage ayant le don de se rendre invisible. Au cours de cette aventure, Bob Morane fait la connaissance de la Gargouille, un clochard aussi laid que sympathique, qui lui avoue qu'il est le héros de la confrérie des clochards. 
 Bob Morane parvient à neutraliser le gang chinois. Il tend ensuite un piège à celui qu'il a surnommé l'Espion invisible. Celui-ci tombe dedans mais son invisibilité lui permet de s'en tirer. Il se sauve en se jetant dans la Seine. Un policier lui tire dessus et l'abat mais le corps n'est jamais retrouvé.
